--- a/parameter_files/de_dg_sw_upper.xlsx
+++ b/parameter_files/de_dg_sw_upper.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{FBCBA10B-447A-4FF7-BCC3-257E4CF610A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A130F725-9692-4E5F-814D-A4DBB2BAB36A}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{FBCBA10B-447A-4FF7-BCC3-257E4CF610A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1310B56-5EF9-4F44-A804-97E69BC0587C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BDAEAEA6-CC2A-4901-87EA-4921D17B5775}"/>
   </bookViews>
@@ -35,24 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
-    <t>small growers to sw</t>
-  </si>
-  <si>
-    <t>large growers to sw</t>
-  </si>
-  <si>
-    <t>small growers (white area) to sw</t>
-  </si>
-  <si>
-    <t>large growers (white area) to sw</t>
-  </si>
-  <si>
-    <t>rural communities to sw</t>
-  </si>
-  <si>
-    <t>municipalities to sw</t>
-  </si>
-  <si>
     <t>other dischargers</t>
   </si>
   <si>
@@ -138,13 +120,31 @@
   </si>
   <si>
     <t>environmental orgs</t>
+  </si>
+  <si>
+    <t>rural communities</t>
+  </si>
+  <si>
+    <t>small growers</t>
+  </si>
+  <si>
+    <t>investor growers</t>
+  </si>
+  <si>
+    <t>small growers (white area)</t>
+  </si>
+  <si>
+    <t>investor growers (white area)</t>
+  </si>
+  <si>
+    <t>municipalities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +177,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -229,17 +235,6 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
@@ -276,11 +271,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -288,26 +311,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -627,348 +653,348 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5">
-        <v>2</v>
-      </c>
-      <c r="D14" s="5">
-        <v>2</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="4" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="6" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5">
-        <v>-1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-1</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="6" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="6" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="6" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="4" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="4" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="4" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
